--- a/Output/Bajetta_1994 Bajetta 1994 OS DTIC parameters.xlsx
+++ b/Output/Bajetta_1994 Bajetta 1994 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.13810935882744</v>
+        <v>-3.09126802584416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188580141371055</v>
+        <v>0.175312283413101</v>
       </c>
       <c r="D2" t="n">
         <v>383.258160778175</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.150618291702876</v>
+        <v>0.143473106550909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122038959982672</v>
+        <v>0.117818399725227</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.51392827451678</v>
+        <v>2.46833408038063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201082049136534</v>
+        <v>0.22714291112948</v>
       </c>
       <c r="D2" t="n">
         <v>367.673352208179</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.04507703041139</v>
+        <v>-1.03846010749416</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11006605620096</v>
+        <v>0.115243977650148</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.36474220234867</v>
+        <v>-2.3370003112681</v>
       </c>
       <c r="C2" t="n">
-        <v>0.137854567634377</v>
+        <v>0.129544185691206</v>
       </c>
       <c r="D2" t="n">
         <v>369.994576750324</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.75745630420685</v>
+        <v>1.73953940198937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196502431741154</v>
+        <v>0.208695357802345</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.70193626478097</v>
+        <v>-2.66618220861419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.156444834207228</v>
+        <v>0.144808633201942</v>
       </c>
       <c r="D2" t="n">
         <v>382.532191107113</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0190879804587354</v>
+        <v>-0.0198690908444268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.019550634465166</v>
+        <v>0.0191775399753587</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0355624697195271</v>
+        <v>0.0307343967155154</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0152701894491901</v>
+        <v>-0.0141763938303875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0152701894491901</v>
+        <v>-0.0141763938303875</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0148935077536523</v>
+        <v>0.0138811753138134</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0404339904849474</v>
+        <v>0.0515939020763749</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0187037178595124</v>
+        <v>-0.0232637853881486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0187037178595124</v>
+        <v>-0.0232637853881486</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0121145367276329</v>
+        <v>0.0132811743846279</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.019003881817661</v>
+        <v>0.0167816960463977</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0156685419146</v>
+        <v>0.0130353650991837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0156685419146</v>
+        <v>0.0130353650991837</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0386132056801868</v>
+        <v>0.0435537523682489</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0244749861501269</v>
+        <v>0.0209695402498145</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00172192507099017</v>
+        <v>-0.00167073607669963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00172192507099017</v>
+        <v>-0.00167073607669963</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000382227307990537</v>
+        <v>0.00036777803950648</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Bajetta_1994 Bajetta 1994 OS DTIC parameters.xlsx
+++ b/Output/Bajetta_1994 Bajetta 1994 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.09126802584416</v>
+        <v>-3.13810935882744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.175312283413101</v>
+        <v>0.188580141371055</v>
       </c>
       <c r="D2" t="n">
         <v>383.258160778175</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.143473106550909</v>
+        <v>0.150618291702876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117818399725227</v>
+        <v>0.122038959982672</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.46833408038063</v>
+        <v>2.51392827451678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22714291112948</v>
+        <v>0.201082049136534</v>
       </c>
       <c r="D2" t="n">
         <v>367.673352208179</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.03846010749416</v>
+        <v>-1.04507703041139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115243977650148</v>
+        <v>0.11006605620096</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.3370003112681</v>
+        <v>-2.36474220234867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.129544185691206</v>
+        <v>0.137854567634377</v>
       </c>
       <c r="D2" t="n">
         <v>369.994576750324</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.73953940198937</v>
+        <v>0.55764737964053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.208695357802345</v>
+        <v>0.111678500072081</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.66618220861419</v>
+        <v>-2.70193626478097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.144808633201942</v>
+        <v>0.156444834207228</v>
       </c>
       <c r="D2" t="n">
         <v>382.532191107113</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0198690908444268</v>
+        <v>-0.0190879804587354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0191775399753587</v>
+        <v>0.019550634465166</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0307343967155154</v>
+        <v>0.0355624697195271</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0141763938303875</v>
+        <v>-0.0152701894491901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0141763938303875</v>
+        <v>-0.0152701894491901</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0138811753138134</v>
+        <v>0.0148935077536523</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0515939020763749</v>
+        <v>0.0404339904849474</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0232637853881486</v>
+        <v>-0.0187037178595124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0232637853881486</v>
+        <v>-0.0187037178595124</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0132811743846279</v>
+        <v>0.0121145367276329</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0167816960463977</v>
+        <v>0.019003881817661</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0130353650991837</v>
+        <v>0.00905882053789058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0130353650991837</v>
+        <v>0.00905882053789058</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0435537523682489</v>
+        <v>0.0124720873783497</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0209695402498145</v>
+        <v>0.0244749861501269</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00167073607669963</v>
+        <v>-0.00172192507099017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00167073607669963</v>
+        <v>-0.00172192507099017</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00036777803950648</v>
+        <v>0.000382227307990537</v>
       </c>
     </row>
   </sheetData>
